--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T13:36:13-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/ms-abo-group-codes</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/ms-abo-group-codes</t>
   </si>
   <si>
     <t>Version</t>
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MatchSource ABO Group Value Set</t>
+    <t>MatchSync ABO Group Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,10 +56,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2024-02-19T18:37:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MatchSource ABO group codes. Combines LOINC, Snomed, and NMDP codes</t>
+    <t>MatchSync ABO group codes. Combines LOINC, Snomed, and NMDP codes</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -95,13 +98,13 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/nmdp-abo-codes</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/nmdp-abo-codes</t>
   </si>
   <si>
     <t>http://loinc.org/vs/LL2419-1</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/sct-abo-group-codes</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/sct-abo-group-codes</t>
   </si>
 </sst>
 </file>
@@ -223,10 +226,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -297,58 +300,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -370,12 +375,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -397,12 +402,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -424,12 +429,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -50,7 +50,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -74,7 +74,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include ValueSets 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T10:22:59-05:00</t>
+    <t>2024-11-11T17:53:38-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>NMDP (http://bethematch.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -238,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,20 +346,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -375,12 +389,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -402,12 +416,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -429,12 +443,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-ms-abo-group-codes.xlsx
+++ b/ValueSet-ms-abo-group-codes.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
